--- a/tests/testoutputs/test_all_criteria.xlsx
+++ b/tests/testoutputs/test_all_criteria.xlsx
@@ -9,29 +9,29 @@
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="Criteria Failing, Air Speed 0.1" sheetId="2" r:id="rId2"/>
-    <sheet name="Criterion 2, Air Speed 0.1" sheetId="3" r:id="rId3"/>
-    <sheet name="Criterion 1, Air Speed 0.1" sheetId="4" r:id="rId4"/>
-    <sheet name="Criterion 3, Air Speed 0.1" sheetId="5" r:id="rId5"/>
+    <sheet name="Criterion 3, Air Speed 0.1" sheetId="3" r:id="rId3"/>
+    <sheet name="Criterion 2, Air Speed 0.1" sheetId="4" r:id="rId4"/>
+    <sheet name="Criterion 1, Air Speed 0.1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="59">
+  <si>
+    <t>JobNo</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>JobNo</t>
+    <t>sheet_name</t>
   </si>
   <si>
     <t>Author</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -44,42 +44,42 @@
     <t>3</t>
   </si>
   <si>
+    <t>/c/e</t>
+  </si>
+  <si>
     <t>20220308</t>
   </si>
   <si>
-    <t>/c/e</t>
+    <t>Criteria Failing, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 3, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 2, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 1, Air Speed 0.1</t>
   </si>
   <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>Criteria Failing, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 2, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 1, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 3, Air Speed 0.1</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
+    <t>IES Results</t>
+  </si>
+  <si>
+    <t>MF Results</t>
+  </si>
+  <si>
+    <t>IES v MF</t>
+  </si>
+  <si>
     <t>Room Name</t>
   </si>
   <si>
-    <t>IES Results</t>
-  </si>
-  <si>
-    <t>MF Results</t>
-  </si>
-  <si>
-    <t>IES v MF</t>
-  </si>
-  <si>
     <t>A_01_XX_XX_ApartmentSW</t>
   </si>
   <si>
@@ -176,6 +176,12 @@
     <t>1 &amp; 2</t>
   </si>
   <si>
+    <t>Criterion 3 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 3 Relative Change (%)</t>
+  </si>
+  <si>
     <t>Criterion 2 Absolute Change</t>
   </si>
   <si>
@@ -189,12 +195,6 @@
   </si>
   <si>
     <t>inf</t>
-  </si>
-  <si>
-    <t>Criterion 3 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 3 Relative Change (%)</t>
   </si>
 </sst>
 </file>
@@ -378,24 +378,23 @@
   <autoFilter ref="A1:E5"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Date"/>
-    <tableColumn id="3" name="JobNo"/>
-    <tableColumn id="4" name="Author"/>
-    <tableColumn id="5" name="sheet_name"/>
+    <tableColumn id="2" name="JobNo"/>
+    <tableColumn id="3" name="Date"/>
+    <tableColumn id="4" name="sheet_name"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E32" totalsRowShown="0">
-  <autoFilter ref="A1:E32"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="IES Results"/>
-    <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="IES v MF"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D32" totalsRowShown="0">
+  <autoFilter ref="A1:D32"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Room Name"/>
+    <tableColumn id="2" name="IES Results"/>
+    <tableColumn id="3" name="MF Results"/>
+    <tableColumn id="4" name="IES v MF"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -409,8 +408,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -424,8 +423,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -439,8 +438,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -777,7 +776,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -791,10 +790,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -808,10 +807,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -825,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -842,7 +841,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -853,9 +852,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="80" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="80" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -866,450 +865,354 @@
       <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3">
-        <v>0</v>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3">
-        <v>1</v>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>51</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
         <v>51</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>51</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
         <v>51</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>51</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>51</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
         <v>51</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>51</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
         <v>51</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>51</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
         <v>51</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>51</v>
       </c>
-      <c r="D20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3">
-        <v>20</v>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
         <v>6</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3">
-        <v>23</v>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>51</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
         <v>51</v>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
         <v>51</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
       </c>
       <c r="C27" t="s">
         <v>51</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
         <v>51</v>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
       </c>
       <c r="C28" t="s">
         <v>51</v>
       </c>
-      <c r="D28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="3">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="3">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="3">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="3">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E32" t="b">
+      <c r="D32" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1339,13 +1242,13 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>52</v>
@@ -1362,10 +1265,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1382,10 +1285,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1402,10 +1305,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1490,16 +1393,16 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1510,10 +1413,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1530,10 +1433,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1550,10 +1453,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1587,10 +1490,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1607,10 +1510,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1644,10 +1547,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1664,10 +1567,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1684,10 +1587,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1704,10 +1607,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1744,10 +1647,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1764,10 +1667,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1804,10 +1707,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1824,10 +1727,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1844,10 +1747,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1864,10 +1767,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1970,13 +1873,13 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>54</v>
@@ -1993,16 +1896,16 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>2.48</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.8000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2013,16 +1916,16 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>7.89</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>0.08999999999999986</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.153846153846152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2033,16 +1936,16 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>8.1</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>8.039999999999999</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>-0.0600000000000005</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.7407407407407469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2121,16 +2024,16 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>10.6</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>10.59</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>-0.009999999999999787</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>-0.09433962264150743</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2141,16 +2044,16 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>26.04</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1538461538461506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2161,16 +2064,16 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>11.6</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>11.57</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>-0.02999999999999936</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.2586206896551669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2181,16 +2084,16 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>26.3</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>26.4</v>
+        <v>29</v>
       </c>
       <c r="E12">
-        <v>0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3802281368821211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2218,10 +2121,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2238,16 +2141,16 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>0.14</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>0.04000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>40.00000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2275,16 +2178,16 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>12.9</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>12.94</v>
+        <v>29</v>
       </c>
       <c r="E17">
-        <v>0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3100775193798383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2295,16 +2198,16 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>28.3</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>28.26</v>
+        <v>30</v>
       </c>
       <c r="E18">
-        <v>-0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>-0.1413427561837426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2315,16 +2218,16 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>13.4</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>13.45</v>
+        <v>33</v>
       </c>
       <c r="E19">
-        <v>0.04999999999999893</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.373134328358201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2335,16 +2238,16 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>28.46</v>
+        <v>30</v>
       </c>
       <c r="E20">
-        <v>-0.1400000000000006</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.4895104895104915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2355,16 +2258,16 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0.03</v>
-      </c>
-      <c r="F21" t="s">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2375,16 +2278,16 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>1.58</v>
+        <v>7</v>
       </c>
       <c r="E22">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>-1.250000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2395,16 +2298,16 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>0.35</v>
+        <v>7</v>
       </c>
       <c r="E23">
-        <v>-0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>-12.50000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2415,16 +2318,16 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0.03</v>
-      </c>
-      <c r="F24" t="s">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2435,16 +2338,16 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>5.6</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>5.61</v>
+        <v>18</v>
       </c>
       <c r="E25">
-        <v>0.01000000000000068</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.1785714285714406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2455,16 +2358,16 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>17.7</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>17.8</v>
+        <v>22</v>
       </c>
       <c r="E26">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.5649717514124375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2475,16 +2378,16 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>5.2</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>5.23</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>0.03000000000000025</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.5769230769230818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2495,16 +2398,16 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>17.7</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>17.75</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>0.05000000000000071</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.2824858757062187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2601,19 +2504,19 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2624,16 +2527,16 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.48</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>-0.8000000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2644,16 +2547,16 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>7.89</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1.153846153846152</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2664,16 +2567,16 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-0.0600000000000005</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>-0.7407407407407469</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2752,16 +2655,16 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>10.6</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>10.59</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-0.09433962264150743</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2772,16 +2675,16 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>26.04</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.1538461538461506</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2792,16 +2695,16 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>11.6</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>11.57</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>-0.02999999999999936</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>-0.2586206896551669</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2812,16 +2715,16 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>26.3</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>26.4</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.09999999999999787</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.3802281368821211</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2849,10 +2752,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2869,16 +2772,16 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2906,16 +2809,16 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>12.9</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>12.94</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.3100775193798383</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2926,16 +2829,16 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>28.3</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>28.26</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.03999999999999915</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.1413427561837426</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2946,16 +2849,16 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>13.4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>13.45</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.04999999999999893</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.373134328358201</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2966,16 +2869,16 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>28.6</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>28.46</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>-0.1400000000000006</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>-0.4895104895104915</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2986,16 +2889,16 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+        <v>0.03</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3006,16 +2909,16 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>-1.250000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3026,16 +2929,16 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>-12.50000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3046,16 +2949,16 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+        <v>0.03</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3066,16 +2969,16 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>5.61</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.01000000000000068</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.1785714285714406</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3086,16 +2989,16 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>17.8</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.5649717514124375</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3106,16 +3009,16 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>5.23</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.03000000000000025</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.5769230769230818</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3126,16 +3029,16 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>17.75</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.05000000000000071</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.2824858757062187</v>
       </c>
     </row>
     <row r="29" spans="1:6">

--- a/tests/testoutputs/test_all_criteria.xlsx
+++ b/tests/testoutputs/test_all_criteria.xlsx
@@ -20,18 +20,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="59">
   <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -44,25 +44,25 @@
     <t>3</t>
   </si>
   <si>
+    <t>Criteria Failing, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 3, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 2, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 1, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>jovyan</t>
+  </si>
+  <si>
     <t>/c/e</t>
   </si>
   <si>
     <t>20220308</t>
-  </si>
-  <si>
-    <t>Criteria Failing, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 3, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 2, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 1, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>jovyan</t>
   </si>
   <si>
     <t>index</t>
@@ -378,10 +378,10 @@
   <autoFilter ref="A1:E5"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="Date"/>
-    <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Author"/>
+    <tableColumn id="2" name="sheet_name"/>
+    <tableColumn id="3" name="Author"/>
+    <tableColumn id="4" name="JobNo"/>
+    <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -770,10 +770,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -784,13 +784,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -801,13 +801,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -818,10 +818,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>

--- a/tests/testoutputs/test_all_criteria.xlsx
+++ b/tests/testoutputs/test_all_criteria.xlsx
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="Criteria Failing, Air Speed 0.1" sheetId="2" r:id="rId2"/>
-    <sheet name="Criterion 3, Air Speed 0.1" sheetId="3" r:id="rId3"/>
+    <sheet name="Criterion 1, Air Speed 0.1" sheetId="3" r:id="rId3"/>
     <sheet name="Criterion 2, Air Speed 0.1" sheetId="4" r:id="rId4"/>
-    <sheet name="Criterion 1, Air Speed 0.1" sheetId="5" r:id="rId5"/>
+    <sheet name="Criterion 3, Air Speed 0.1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -20,18 +20,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="59">
   <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>Author</t>
+    <t>Date</t>
   </si>
   <si>
     <t>JobNo</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -44,27 +44,27 @@
     <t>3</t>
   </si>
   <si>
+    <t>jovyan</t>
+  </si>
+  <si>
     <t>Criteria Failing, Air Speed 0.1</t>
   </si>
   <si>
+    <t>Criterion 1, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 2, Air Speed 0.1</t>
+  </si>
+  <si>
     <t>Criterion 3, Air Speed 0.1</t>
   </si>
   <si>
-    <t>Criterion 2, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 1, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>jovyan</t>
+    <t>20220308</t>
   </si>
   <si>
     <t>/c/e</t>
   </si>
   <si>
-    <t>20220308</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -176,25 +176,25 @@
     <t>1 &amp; 2</t>
   </si>
   <si>
+    <t>Criterion 1 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 1 Relative Change (%)</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>Criterion 2 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 2 Relative Change (%)</t>
+  </si>
+  <si>
     <t>Criterion 3 Absolute Change</t>
   </si>
   <si>
     <t>Criterion 3 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>Criterion 2 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 2 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>Criterion 1 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 1 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -378,10 +378,10 @@
   <autoFilter ref="A1:E5"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="sheet_name"/>
-    <tableColumn id="3" name="Author"/>
-    <tableColumn id="4" name="JobNo"/>
-    <tableColumn id="5" name="Date"/>
+    <tableColumn id="2" name="Author"/>
+    <tableColumn id="3" name="sheet_name"/>
+    <tableColumn id="4" name="Date"/>
+    <tableColumn id="5" name="JobNo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -408,8 +408,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -438,8 +438,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -770,7 +770,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -784,10 +784,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -801,10 +801,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -818,7 +818,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1265,16 +1265,16 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.48</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>-0.8000000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1285,16 +1285,16 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>7.89</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1.153846153846152</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1305,16 +1305,16 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-0.0600000000000005</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>-0.7407407407407469</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1393,16 +1393,16 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>10.6</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>10.59</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-0.09433962264150743</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1413,16 +1413,16 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>26.04</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.1538461538461506</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1433,16 +1433,16 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>11.6</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>11.57</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>-0.02999999999999936</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>-0.2586206896551669</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1453,16 +1453,16 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>26.3</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>26.4</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.09999999999999787</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.3802281368821211</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1490,10 +1490,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1510,16 +1510,16 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1547,16 +1547,16 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>12.9</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>12.94</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.3100775193798383</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1567,16 +1567,16 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>28.3</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>28.26</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.03999999999999915</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.1413427561837426</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1587,16 +1587,16 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>13.4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>13.45</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.04999999999999893</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.373134328358201</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1607,16 +1607,16 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>28.6</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>28.46</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>-0.1400000000000006</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>-0.4895104895104915</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1627,16 +1627,16 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+        <v>0.03</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1647,16 +1647,16 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>-1.250000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1667,16 +1667,16 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>-12.50000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1687,16 +1687,16 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+        <v>0.03</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1707,16 +1707,16 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>5.61</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.01000000000000068</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.1785714285714406</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1727,16 +1727,16 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>17.8</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.5649717514124375</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1747,16 +1747,16 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>5.23</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.03000000000000025</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.5769230769230818</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1767,16 +1767,16 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>17.75</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.05000000000000071</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.2824858757062187</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1882,10 +1882,10 @@
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2513,10 +2513,10 @@
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2527,16 +2527,16 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2.48</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.8000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2547,16 +2547,16 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>7.89</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0.08999999999999986</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.153846153846152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2567,16 +2567,16 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>8.1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>8.039999999999999</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>-0.0600000000000005</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.7407407407407469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2655,16 +2655,16 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>10.6</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>10.59</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>-0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.09433962264150743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2675,16 +2675,16 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>26.04</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1538461538461506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2695,16 +2695,16 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>11.6</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>11.57</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>-0.02999999999999936</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.2586206896551669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2715,16 +2715,16 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>26.3</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>26.4</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3802281368821211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2752,10 +2752,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0.04000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>40.00000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2809,16 +2809,16 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>12.9</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>12.94</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3100775193798383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2829,16 +2829,16 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>28.3</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>28.26</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>-0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>-0.1413427561837426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2849,16 +2849,16 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>13.4</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>13.45</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>0.04999999999999893</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.373134328358201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2869,16 +2869,16 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>28.6</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>28.46</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>-0.1400000000000006</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.4895104895104915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2889,16 +2889,16 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0.03</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2909,16 +2909,16 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>-1.250000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2929,16 +2929,16 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>-0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>-12.50000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2949,16 +2949,16 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0.03</v>
-      </c>
-      <c r="F24" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2969,16 +2969,16 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>5.61</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0.01000000000000068</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.1785714285714406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2989,16 +2989,16 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>17.8</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.5649717514124375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3009,16 +3009,16 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>5.23</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>0.03000000000000025</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.5769230769230818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3029,16 +3029,16 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>17.75</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>0.05000000000000071</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.2824858757062187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">

--- a/tests/testoutputs/test_all_criteria.xlsx
+++ b/tests/testoutputs/test_all_criteria.xlsx
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="Criteria Failing, Air Speed 0.1" sheetId="2" r:id="rId2"/>
-    <sheet name="Criterion 1, Air Speed 0.1" sheetId="3" r:id="rId3"/>
+    <sheet name="Criterion 3, Air Speed 0.1" sheetId="3" r:id="rId3"/>
     <sheet name="Criterion 2, Air Speed 0.1" sheetId="4" r:id="rId4"/>
-    <sheet name="Criterion 3, Air Speed 0.1" sheetId="5" r:id="rId5"/>
+    <sheet name="Criterion 1, Air Speed 0.1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -20,18 +20,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="59">
   <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>JobNo</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -44,25 +44,25 @@
     <t>3</t>
   </si>
   <si>
+    <t>Criteria Failing, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 3, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 2, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 1, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>/c/e</t>
+  </si>
+  <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>Criteria Failing, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 1, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 2, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 3, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>20220308</t>
-  </si>
-  <si>
-    <t>/c/e</t>
+    <t>20220309</t>
   </si>
   <si>
     <t>index</t>
@@ -176,6 +176,18 @@
     <t>1 &amp; 2</t>
   </si>
   <si>
+    <t>Criterion 3 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 3 Relative Change (%)</t>
+  </si>
+  <si>
+    <t>Criterion 2 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 2 Relative Change (%)</t>
+  </si>
+  <si>
     <t>Criterion 1 Absolute Change</t>
   </si>
   <si>
@@ -183,18 +195,6 @@
   </si>
   <si>
     <t>inf</t>
-  </si>
-  <si>
-    <t>Criterion 2 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 2 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>Criterion 3 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 3 Relative Change (%)</t>
   </si>
 </sst>
 </file>
@@ -378,10 +378,10 @@
   <autoFilter ref="A1:E5"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Author"/>
-    <tableColumn id="3" name="sheet_name"/>
-    <tableColumn id="4" name="Date"/>
-    <tableColumn id="5" name="JobNo"/>
+    <tableColumn id="2" name="sheet_name"/>
+    <tableColumn id="3" name="JobNo"/>
+    <tableColumn id="4" name="Author"/>
+    <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -408,8 +408,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -438,8 +438,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -770,7 +770,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -784,10 +784,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -801,10 +801,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -818,7 +818,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1265,16 +1265,16 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2.48</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.8000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1285,16 +1285,16 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>7.89</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0.08999999999999986</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.153846153846152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1305,16 +1305,16 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>8.1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>8.039999999999999</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>-0.0600000000000005</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.7407407407407469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1393,16 +1393,16 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>10.6</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>10.59</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>-0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.09433962264150743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1413,16 +1413,16 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>26.04</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1538461538461506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1433,16 +1433,16 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>11.6</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>11.57</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>-0.02999999999999936</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.2586206896551669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1453,16 +1453,16 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>26.3</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>26.4</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3802281368821211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1490,10 +1490,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1510,16 +1510,16 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0.04000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>40.00000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1547,16 +1547,16 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>12.9</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>12.94</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3100775193798383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1567,16 +1567,16 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>28.3</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>28.26</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>-0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>-0.1413427561837426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1587,16 +1587,16 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>13.4</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>13.45</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>0.04999999999999893</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.373134328358201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1607,16 +1607,16 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>28.6</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>28.46</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>-0.1400000000000006</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.4895104895104915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1627,16 +1627,16 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0.03</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1647,16 +1647,16 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>-1.250000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1667,16 +1667,16 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>-0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>-12.50000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1687,16 +1687,16 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0.03</v>
-      </c>
-      <c r="F24" t="s">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1707,16 +1707,16 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>5.61</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0.01000000000000068</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.1785714285714406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1727,16 +1727,16 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>17.8</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.5649717514124375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1747,16 +1747,16 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>5.23</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>0.03000000000000025</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.5769230769230818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1767,16 +1767,16 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>17.75</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>0.05000000000000071</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.2824858757062187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1882,10 +1882,10 @@
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2513,10 +2513,10 @@
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2527,16 +2527,16 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.48</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>-0.8000000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2547,16 +2547,16 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>7.89</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1.153846153846152</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2567,16 +2567,16 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-0.0600000000000005</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>-0.7407407407407469</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2655,16 +2655,16 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>10.6</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>10.59</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-0.09433962264150743</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2675,16 +2675,16 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>26.04</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.1538461538461506</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2695,16 +2695,16 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>11.6</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>11.57</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>-0.02999999999999936</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>-0.2586206896551669</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2715,16 +2715,16 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>26.3</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>26.4</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.09999999999999787</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.3802281368821211</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2752,10 +2752,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2809,16 +2809,16 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>12.9</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>12.94</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.3100775193798383</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2829,16 +2829,16 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>28.3</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>28.26</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.03999999999999915</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.1413427561837426</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2849,16 +2849,16 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>13.4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>13.45</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.04999999999999893</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.373134328358201</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2869,16 +2869,16 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>28.6</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>28.46</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>-0.1400000000000006</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>-0.4895104895104915</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2889,16 +2889,16 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+        <v>0.03</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2909,16 +2909,16 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>-1.250000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2929,16 +2929,16 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>-12.50000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2949,16 +2949,16 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+        <v>0.03</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2969,16 +2969,16 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>5.61</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.01000000000000068</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.1785714285714406</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2989,16 +2989,16 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>17.8</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.5649717514124375</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3009,16 +3009,16 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>5.23</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.03000000000000025</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.5769230769230818</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3029,16 +3029,16 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>17.75</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.05000000000000071</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.2824858757062187</v>
       </c>
     </row>
     <row r="29" spans="1:6">

--- a/tests/testoutputs/test_all_criteria.xlsx
+++ b/tests/testoutputs/test_all_criteria.xlsx
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="Criteria Failing, Air Speed 0.1" sheetId="2" r:id="rId2"/>
-    <sheet name="Criterion 3, Air Speed 0.1" sheetId="3" r:id="rId3"/>
-    <sheet name="Criterion 2, Air Speed 0.1" sheetId="4" r:id="rId4"/>
-    <sheet name="Criterion 1, Air Speed 0.1" sheetId="5" r:id="rId5"/>
+    <sheet name="Criterion 1, Air Speed 0.1" sheetId="3" r:id="rId3"/>
+    <sheet name="Criterion 3, Air Speed 0.1" sheetId="4" r:id="rId4"/>
+    <sheet name="Criterion 2, Air Speed 0.1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -20,18 +20,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="59">
   <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -44,27 +44,27 @@
     <t>3</t>
   </si>
   <si>
+    <t>/c/e</t>
+  </si>
+  <si>
+    <t>20220316</t>
+  </si>
+  <si>
     <t>Criteria Failing, Air Speed 0.1</t>
   </si>
   <si>
+    <t>Criterion 1, Air Speed 0.1</t>
+  </si>
+  <si>
     <t>Criterion 3, Air Speed 0.1</t>
   </si>
   <si>
     <t>Criterion 2, Air Speed 0.1</t>
   </si>
   <si>
-    <t>Criterion 1, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>/c/e</t>
-  </si>
-  <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>20220309</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -176,6 +176,15 @@
     <t>1 &amp; 2</t>
   </si>
   <si>
+    <t>Criterion 1 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 1 Relative Change (%)</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
     <t>Criterion 3 Absolute Change</t>
   </si>
   <si>
@@ -186,15 +195,6 @@
   </si>
   <si>
     <t>Criterion 2 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>Criterion 1 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 1 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -378,10 +378,10 @@
   <autoFilter ref="A1:E5"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="sheet_name"/>
-    <tableColumn id="3" name="JobNo"/>
-    <tableColumn id="4" name="Author"/>
-    <tableColumn id="5" name="Date"/>
+    <tableColumn id="2" name="JobNo"/>
+    <tableColumn id="3" name="Date"/>
+    <tableColumn id="4" name="sheet_name"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -408,8 +408,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -423,8 +423,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -438,8 +438,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -770,10 +770,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -784,13 +784,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -801,13 +801,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -818,10 +818,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -1265,16 +1265,16 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-0.04999999999999982</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>-1.999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1285,16 +1285,16 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>7.79</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>-0.1282051282051255</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1305,16 +1305,16 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>8.09</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>-0.1234567901234542</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1393,16 +1393,16 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>10.6</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>10.59</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-0.09433962264150743</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1413,16 +1413,16 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>26.04</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.1538461538461506</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1433,16 +1433,16 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>11.6</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>11.57</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>-0.02999999999999936</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>-0.2586206896551669</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1453,16 +1453,16 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>26.3</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>26.34</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.1520912547528485</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1490,10 +1490,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1510,16 +1510,16 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1547,16 +1547,16 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>12.9</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>12.91</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.009999999999999787</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.07751937984495957</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1567,16 +1567,16 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>28.3</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>28.31</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.03533568904592936</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1587,16 +1587,16 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>13.4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>13.43</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.02999999999999936</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.2238805970149206</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1607,16 +1607,16 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>28.6</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>28.61</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.03496503496502801</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1627,16 +1627,16 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+        <v>0.03</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1647,16 +1647,16 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>-1.250000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1667,16 +1667,16 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>-12.50000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1687,16 +1687,16 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+        <v>0.03</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1707,16 +1707,16 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>5.58</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>-0.01999999999999957</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>-0.3571428571428495</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1727,16 +1727,16 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>17.75</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.05000000000000071</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.2824858757062187</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1747,16 +1747,16 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>5.23</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.03000000000000025</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.5769230769230818</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1767,16 +1767,16 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>17.75</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.05000000000000071</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.2824858757062187</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1882,10 +1882,10 @@
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1896,10 +1896,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1916,10 +1916,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1936,10 +1936,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2024,16 +2024,16 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2044,10 +2044,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2084,10 +2084,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2121,10 +2121,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2198,10 +2198,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2218,10 +2218,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2278,10 +2278,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2338,10 +2338,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2398,10 +2398,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2513,10 +2513,10 @@
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2527,16 +2527,16 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>2.48</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.8000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2547,16 +2547,16 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>7.89</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>0.08999999999999986</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.153846153846152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2567,16 +2567,16 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>8.1</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>8.039999999999999</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>-0.0600000000000005</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.7407407407407469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2655,16 +2655,16 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>10.6</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>10.59</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>-0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.09433962264150743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2675,16 +2675,16 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>26.04</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1538461538461506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2695,16 +2695,16 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>11.6</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>11.57</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>-0.02999999999999936</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.2586206896551669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2715,16 +2715,16 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>26.3</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>26.4</v>
+        <v>29</v>
       </c>
       <c r="E12">
-        <v>0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3802281368821211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2752,10 +2752,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>0.14</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>0.04000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>40.00000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2809,16 +2809,16 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>12.9</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>12.94</v>
+        <v>29</v>
       </c>
       <c r="E17">
-        <v>0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3100775193798383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2829,16 +2829,16 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>28.3</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>28.26</v>
+        <v>30</v>
       </c>
       <c r="E18">
-        <v>-0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>-0.1413427561837426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2849,16 +2849,16 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>13.4</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>13.45</v>
+        <v>33</v>
       </c>
       <c r="E19">
-        <v>0.04999999999999893</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.373134328358201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2869,16 +2869,16 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>28.46</v>
+        <v>30</v>
       </c>
       <c r="E20">
-        <v>-0.1400000000000006</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.4895104895104915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2889,16 +2889,16 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0.03</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2909,16 +2909,16 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>1.58</v>
+        <v>7</v>
       </c>
       <c r="E22">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>-1.250000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2929,16 +2929,16 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>0.35</v>
+        <v>7</v>
       </c>
       <c r="E23">
-        <v>-0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>-12.50000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2949,16 +2949,16 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0.03</v>
-      </c>
-      <c r="F24" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2969,16 +2969,16 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>5.6</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>5.61</v>
+        <v>18</v>
       </c>
       <c r="E25">
-        <v>0.01000000000000068</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.1785714285714406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2989,16 +2989,16 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>17.7</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>17.8</v>
+        <v>22</v>
       </c>
       <c r="E26">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.5649717514124375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3009,16 +3009,16 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>5.2</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>5.23</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>0.03000000000000025</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.5769230769230818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3029,16 +3029,16 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>17.7</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>17.75</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>0.05000000000000071</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.2824858757062187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">

--- a/tests/testoutputs/test_all_criteria.xlsx
+++ b/tests/testoutputs/test_all_criteria.xlsx
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="Criteria Failing, Air Speed 0.1" sheetId="2" r:id="rId2"/>
-    <sheet name="Criterion 1, Air Speed 0.1" sheetId="3" r:id="rId3"/>
-    <sheet name="Criterion 3, Air Speed 0.1" sheetId="4" r:id="rId4"/>
-    <sheet name="Criterion 2, Air Speed 0.1" sheetId="5" r:id="rId5"/>
+    <sheet name="Criterion 3, Air Speed 0.1" sheetId="3" r:id="rId3"/>
+    <sheet name="Criterion 2, Air Speed 0.1" sheetId="4" r:id="rId4"/>
+    <sheet name="Criterion 1, Air Speed 0.1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -23,15 +23,15 @@
     <t>JobNo</t>
   </si>
   <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -47,24 +47,24 @@
     <t>/c/e</t>
   </si>
   <si>
-    <t>20220316</t>
+    <t>jovyan</t>
+  </si>
+  <si>
+    <t>20220324</t>
   </si>
   <si>
     <t>Criteria Failing, Air Speed 0.1</t>
   </si>
   <si>
+    <t>Criterion 3, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 2, Air Speed 0.1</t>
+  </si>
+  <si>
     <t>Criterion 1, Air Speed 0.1</t>
   </si>
   <si>
-    <t>Criterion 3, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 2, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>jovyan</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -176,6 +176,18 @@
     <t>1 &amp; 2</t>
   </si>
   <si>
+    <t>Criterion 3 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 3 Relative Change (%)</t>
+  </si>
+  <si>
+    <t>Criterion 2 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 2 Relative Change (%)</t>
+  </si>
+  <si>
     <t>Criterion 1 Absolute Change</t>
   </si>
   <si>
@@ -183,18 +195,6 @@
   </si>
   <si>
     <t>inf</t>
-  </si>
-  <si>
-    <t>Criterion 3 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 3 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>Criterion 2 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 2 Relative Change (%)</t>
   </si>
 </sst>
 </file>
@@ -379,9 +379,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="Date"/>
-    <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Author"/>
+    <tableColumn id="3" name="Author"/>
+    <tableColumn id="4" name="Date"/>
+    <tableColumn id="5" name="sheet_name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -408,8 +408,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -423,8 +423,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -438,8 +438,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -776,7 +776,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -790,10 +790,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -807,10 +807,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -824,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -1265,16 +1265,16 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>-0.04999999999999982</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-1.999999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1285,16 +1285,16 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>7.79</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>-0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.1282051282051255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1305,16 +1305,16 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>8.1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>8.09</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>-0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.1234567901234542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1393,16 +1393,16 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>10.6</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>10.59</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>-0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.09433962264150743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1413,16 +1413,16 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>26.04</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1538461538461506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1433,16 +1433,16 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>11.6</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>11.57</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>-0.02999999999999936</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.2586206896551669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1453,16 +1453,16 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>26.3</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>26.34</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.1520912547528485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1490,10 +1490,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1510,16 +1510,16 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0.04000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>40.00000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1547,16 +1547,16 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>12.9</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>12.91</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.07751937984495957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1567,16 +1567,16 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>28.3</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>28.31</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>0.00999999999999801</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03533568904592936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1587,16 +1587,16 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>13.4</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>13.43</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>0.02999999999999936</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2238805970149206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1607,16 +1607,16 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>28.6</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>28.61</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>0.00999999999999801</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.03496503496502801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1627,16 +1627,16 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0.03</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1647,16 +1647,16 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>-1.250000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1667,16 +1667,16 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>-0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>-12.50000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1687,16 +1687,16 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0.03</v>
-      </c>
-      <c r="F24" t="s">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1707,16 +1707,16 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>5.58</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>-0.01999999999999957</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>-0.3571428571428495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1727,16 +1727,16 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>17.75</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>0.05000000000000071</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.2824858757062187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1747,16 +1747,16 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>5.23</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>0.03000000000000025</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.5769230769230818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1767,16 +1767,16 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>17.75</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>0.05000000000000071</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.2824858757062187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1882,10 +1882,10 @@
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1896,10 +1896,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1916,10 +1916,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1936,10 +1936,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2024,10 +2024,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2084,10 +2084,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2121,10 +2121,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2198,10 +2198,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2218,10 +2218,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2278,10 +2278,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2338,10 +2338,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2398,10 +2398,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2513,10 +2513,10 @@
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2527,16 +2527,16 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>2.45</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-0.04999999999999982</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>-1.999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2547,16 +2547,16 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>7.79</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>-0.1282051282051255</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2567,16 +2567,16 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>8.1</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>8.09</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>-0.1234567901234542</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2655,16 +2655,16 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>10.6</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>10.59</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-0.09433962264150743</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2675,16 +2675,16 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>26.04</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.1538461538461506</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2695,16 +2695,16 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>11.6</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>11.57</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>-0.02999999999999936</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>-0.2586206896551669</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2715,16 +2715,16 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>26.3</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>26.34</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.1520912547528485</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2752,10 +2752,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>0.14</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2809,16 +2809,16 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>12.9</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>12.91</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.009999999999999787</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.07751937984495957</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2829,16 +2829,16 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>28.31</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.03533568904592936</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2849,16 +2849,16 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>13.4</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>13.43</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.02999999999999936</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.2238805970149206</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2869,16 +2869,16 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>28.61</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.03496503496502801</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2889,16 +2889,16 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+        <v>0.03</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2909,16 +2909,16 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>1.58</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>-1.250000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2929,16 +2929,16 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>0.35</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>-12.50000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2949,16 +2949,16 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+        <v>0.03</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2969,16 +2969,16 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>5.6</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>5.58</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>-0.01999999999999957</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>-0.3571428571428495</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2989,16 +2989,16 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>17.7</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>17.75</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.05000000000000071</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.2824858757062187</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3009,16 +3009,16 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>5.2</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>5.23</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.03000000000000025</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.5769230769230818</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3029,16 +3029,16 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>17.7</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>17.75</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.05000000000000071</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.2824858757062187</v>
       </c>
     </row>
     <row r="29" spans="1:6">

--- a/tests/testoutputs/test_all_criteria.xlsx
+++ b/tests/testoutputs/test_all_criteria.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="Criteria Failing, Air Speed 0.1" sheetId="2" r:id="rId2"/>
-    <sheet name="Criterion 3, Air Speed 0.1" sheetId="3" r:id="rId3"/>
-    <sheet name="Criterion 2, Air Speed 0.1" sheetId="4" r:id="rId4"/>
+    <sheet name="Criterion 2, Air Speed 0.1" sheetId="3" r:id="rId3"/>
+    <sheet name="Criterion 3, Air Speed 0.1" sheetId="4" r:id="rId4"/>
     <sheet name="Criterion 1, Air Speed 0.1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,20 +18,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="58">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
   <si>
     <t>JobNo</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -44,27 +44,27 @@
     <t>3</t>
   </si>
   <si>
+    <t>20220325</t>
+  </si>
+  <si>
+    <t>Criteria Failing, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 2, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 3, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 1, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>jovyan</t>
+  </si>
+  <si>
     <t>/c/e</t>
   </si>
   <si>
-    <t>jovyan</t>
-  </si>
-  <si>
-    <t>20220324</t>
-  </si>
-  <si>
-    <t>Criteria Failing, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 3, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 2, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 1, Air Speed 0.1</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -176,25 +176,22 @@
     <t>1 &amp; 2</t>
   </si>
   <si>
+    <t>Criterion 2 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 2 Relative Change (%)</t>
+  </si>
+  <si>
     <t>Criterion 3 Absolute Change</t>
   </si>
   <si>
     <t>Criterion 3 Relative Change (%)</t>
   </si>
   <si>
-    <t>Criterion 2 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 2 Relative Change (%)</t>
-  </si>
-  <si>
     <t>Criterion 1 Absolute Change</t>
   </si>
   <si>
     <t>Criterion 1 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -378,10 +375,10 @@
   <autoFilter ref="A1:E5"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="Author"/>
-    <tableColumn id="4" name="Date"/>
-    <tableColumn id="5" name="sheet_name"/>
+    <tableColumn id="2" name="Date"/>
+    <tableColumn id="3" name="sheet_name"/>
+    <tableColumn id="4" name="Author"/>
+    <tableColumn id="5" name="JobNo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -408,8 +405,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -423,8 +420,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -773,10 +770,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -787,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -804,13 +801,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -821,10 +818,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -1265,10 +1262,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1285,10 +1282,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1305,10 +1302,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1393,10 +1390,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1413,10 +1410,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1433,10 +1430,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1453,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1490,10 +1487,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1510,10 +1507,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1547,10 +1544,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1567,10 +1564,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1587,10 +1584,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1607,10 +1604,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1647,10 +1644,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1667,10 +1664,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1707,10 +1704,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1727,10 +1724,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1747,10 +1744,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1767,10 +1764,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1896,10 +1893,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1916,10 +1913,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1936,10 +1933,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2024,10 +2021,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2044,10 +2041,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2064,10 +2061,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2084,10 +2081,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2121,10 +2118,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2141,10 +2138,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2178,10 +2175,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2198,10 +2195,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2218,10 +2215,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2238,10 +2235,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2278,10 +2275,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2298,10 +2295,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2338,10 +2335,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2358,10 +2355,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2378,10 +2375,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2398,10 +2395,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2530,13 +2527,13 @@
         <v>2.5</v>
       </c>
       <c r="D2">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="E2">
-        <v>-0.04999999999999982</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-1.999999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2550,13 +2547,13 @@
         <v>7.8</v>
       </c>
       <c r="D3">
-        <v>7.79</v>
+        <v>7.8</v>
       </c>
       <c r="E3">
-        <v>-0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.1282051282051255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2570,13 +2567,13 @@
         <v>8.1</v>
       </c>
       <c r="D4">
-        <v>8.09</v>
+        <v>8.1</v>
       </c>
       <c r="E4">
-        <v>-0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.1234567901234542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2658,13 +2655,13 @@
         <v>10.6</v>
       </c>
       <c r="D9">
-        <v>10.59</v>
+        <v>10.6</v>
       </c>
       <c r="E9">
-        <v>-0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.09433962264150743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2678,13 +2675,13 @@
         <v>26</v>
       </c>
       <c r="D10">
-        <v>26.04</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1538461538461506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2698,13 +2695,13 @@
         <v>11.6</v>
       </c>
       <c r="D11">
-        <v>11.57</v>
+        <v>11.6</v>
       </c>
       <c r="E11">
-        <v>-0.02999999999999936</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.2586206896551669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2718,13 +2715,13 @@
         <v>26.3</v>
       </c>
       <c r="D12">
-        <v>26.34</v>
+        <v>26.3</v>
       </c>
       <c r="E12">
-        <v>0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.1520912547528485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2775,13 +2772,13 @@
         <v>0.1</v>
       </c>
       <c r="D15">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="E15">
-        <v>0.04000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>40.00000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2812,13 +2809,13 @@
         <v>12.9</v>
       </c>
       <c r="D17">
-        <v>12.91</v>
+        <v>12.9</v>
       </c>
       <c r="E17">
-        <v>0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.07751937984495957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2832,13 +2829,13 @@
         <v>28.3</v>
       </c>
       <c r="D18">
-        <v>28.31</v>
+        <v>28.3</v>
       </c>
       <c r="E18">
-        <v>0.00999999999999801</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03533568904592936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2852,13 +2849,13 @@
         <v>13.4</v>
       </c>
       <c r="D19">
-        <v>13.43</v>
+        <v>13.4</v>
       </c>
       <c r="E19">
-        <v>0.02999999999999936</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2238805970149206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2872,13 +2869,13 @@
         <v>28.6</v>
       </c>
       <c r="D20">
-        <v>28.61</v>
+        <v>28.6</v>
       </c>
       <c r="E20">
-        <v>0.00999999999999801</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.03496503496502801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2892,13 +2889,10 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2912,13 +2906,13 @@
         <v>1.6</v>
       </c>
       <c r="D22">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="E22">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>-1.250000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2932,13 +2926,13 @@
         <v>0.4</v>
       </c>
       <c r="D23">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="E23">
-        <v>-0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>-12.50000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2952,13 +2946,10 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03</v>
-      </c>
-      <c r="F24" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2972,13 +2963,13 @@
         <v>5.6</v>
       </c>
       <c r="D25">
-        <v>5.58</v>
+        <v>5.6</v>
       </c>
       <c r="E25">
-        <v>-0.01999999999999957</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>-0.3571428571428495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2992,13 +2983,13 @@
         <v>17.7</v>
       </c>
       <c r="D26">
-        <v>17.75</v>
+        <v>17.7</v>
       </c>
       <c r="E26">
-        <v>0.05000000000000071</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.2824858757062187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3012,13 +3003,13 @@
         <v>5.2</v>
       </c>
       <c r="D27">
-        <v>5.23</v>
+        <v>5.2</v>
       </c>
       <c r="E27">
-        <v>0.03000000000000025</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.5769230769230818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3032,13 +3023,13 @@
         <v>17.7</v>
       </c>
       <c r="D28">
-        <v>17.75</v>
+        <v>17.7</v>
       </c>
       <c r="E28">
-        <v>0.05000000000000071</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.2824858757062187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">

--- a/tests/testoutputs/test_all_criteria.xlsx
+++ b/tests/testoutputs/test_all_criteria.xlsx
@@ -10,8 +10,8 @@
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="Criteria Failing, Air Speed 0.1" sheetId="2" r:id="rId2"/>
     <sheet name="Criterion 2, Air Speed 0.1" sheetId="3" r:id="rId3"/>
-    <sheet name="Criterion 3, Air Speed 0.1" sheetId="4" r:id="rId4"/>
-    <sheet name="Criterion 1, Air Speed 0.1" sheetId="5" r:id="rId5"/>
+    <sheet name="Criterion 1, Air Speed 0.1" sheetId="4" r:id="rId4"/>
+    <sheet name="Criterion 3, Air Speed 0.1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -20,18 +20,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="58">
   <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>JobNo</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -44,27 +44,27 @@
     <t>3</t>
   </si>
   <si>
+    <t>Criteria Failing, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 2, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 1, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 3, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>/c/e</t>
+  </si>
+  <si>
+    <t>jovyan</t>
+  </si>
+  <si>
     <t>20220325</t>
   </si>
   <si>
-    <t>Criteria Failing, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 2, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 3, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 1, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>jovyan</t>
-  </si>
-  <si>
-    <t>/c/e</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -182,16 +182,16 @@
     <t>Criterion 2 Relative Change (%)</t>
   </si>
   <si>
+    <t>Criterion 1 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 1 Relative Change (%)</t>
+  </si>
+  <si>
     <t>Criterion 3 Absolute Change</t>
   </si>
   <si>
     <t>Criterion 3 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>Criterion 1 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 1 Relative Change (%)</t>
   </si>
 </sst>
 </file>
@@ -375,10 +375,10 @@
   <autoFilter ref="A1:E5"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Date"/>
-    <tableColumn id="3" name="sheet_name"/>
+    <tableColumn id="2" name="sheet_name"/>
+    <tableColumn id="3" name="JobNo"/>
     <tableColumn id="4" name="Author"/>
-    <tableColumn id="5" name="JobNo"/>
+    <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -420,8 +420,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -435,8 +435,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -767,7 +767,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -781,10 +781,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -798,10 +798,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -815,7 +815,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1893,10 +1893,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1933,10 +1933,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2021,10 +2021,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>10.6</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>10.6</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2041,10 +2041,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>11.6</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>11.6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2081,10 +2081,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>26.3</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>26.3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2138,10 +2138,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>12.9</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>12.9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>28.3</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>28.3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2215,10 +2215,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>13.4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>13.4</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2235,10 +2235,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>28.6</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>28.6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2255,15 +2255,12 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
         <v>0</v>
       </c>
     </row>
@@ -2275,10 +2272,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2295,10 +2292,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2315,15 +2312,12 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
         <v>0</v>
       </c>
     </row>
@@ -2335,10 +2329,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2355,10 +2349,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2375,10 +2369,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2395,10 +2389,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2524,10 +2518,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2544,10 +2538,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2564,10 +2558,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>8.1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>8.1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2652,10 +2646,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>10.6</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>10.6</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2672,10 +2666,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2692,10 +2686,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>11.6</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>11.6</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2712,10 +2706,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>26.3</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>26.3</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2749,10 +2743,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2769,10 +2763,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2806,10 +2800,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>12.9</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>12.9</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2826,10 +2820,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>28.3</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>28.3</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2846,10 +2840,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>13.4</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>13.4</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2866,10 +2860,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>28.6</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>28.6</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2886,12 +2880,15 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>0</v>
       </c>
     </row>
@@ -2903,10 +2900,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2923,10 +2920,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2943,12 +2940,15 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>0</v>
       </c>
     </row>
@@ -2960,10 +2960,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2980,10 +2980,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3020,10 +3020,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>

--- a/tests/testoutputs/test_all_criteria.xlsx
+++ b/tests/testoutputs/test_all_criteria.xlsx
@@ -10,8 +10,8 @@
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="Criteria Failing, Air Speed 0.1" sheetId="2" r:id="rId2"/>
     <sheet name="Criterion 2, Air Speed 0.1" sheetId="3" r:id="rId3"/>
-    <sheet name="Criterion 1, Air Speed 0.1" sheetId="4" r:id="rId4"/>
-    <sheet name="Criterion 3, Air Speed 0.1" sheetId="5" r:id="rId5"/>
+    <sheet name="Criterion 3, Air Speed 0.1" sheetId="4" r:id="rId4"/>
+    <sheet name="Criterion 1, Air Speed 0.1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -23,15 +23,15 @@
     <t>sheet_name</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -50,10 +50,13 @@
     <t>Criterion 2, Air Speed 0.1</t>
   </si>
   <si>
+    <t>Criterion 3, Air Speed 0.1</t>
+  </si>
+  <si>
     <t>Criterion 1, Air Speed 0.1</t>
   </si>
   <si>
-    <t>Criterion 3, Air Speed 0.1</t>
+    <t>20220325</t>
   </si>
   <si>
     <t>/c/e</t>
@@ -62,9 +65,6 @@
     <t>jovyan</t>
   </si>
   <si>
-    <t>20220325</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -182,16 +182,16 @@
     <t>Criterion 2 Relative Change (%)</t>
   </si>
   <si>
+    <t>Criterion 3 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 3 Relative Change (%)</t>
+  </si>
+  <si>
     <t>Criterion 1 Absolute Change</t>
   </si>
   <si>
     <t>Criterion 1 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>Criterion 3 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 3 Relative Change (%)</t>
   </si>
 </sst>
 </file>
@@ -376,9 +376,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="sheet_name"/>
-    <tableColumn id="3" name="JobNo"/>
-    <tableColumn id="4" name="Author"/>
-    <tableColumn id="5" name="Date"/>
+    <tableColumn id="3" name="Date"/>
+    <tableColumn id="4" name="JobNo"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -420,8 +420,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -435,8 +435,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1893,10 +1893,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1933,10 +1933,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>8.1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>8.1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2021,10 +2021,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>10.6</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>10.6</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2041,10 +2041,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>11.6</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>11.6</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2081,10 +2081,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>26.3</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>26.3</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2138,10 +2138,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>12.9</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>12.9</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>28.3</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>28.3</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2215,10 +2215,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>13.4</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>13.4</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2235,10 +2235,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>28.6</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>28.6</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2255,12 +2255,15 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>0</v>
       </c>
     </row>
@@ -2272,10 +2275,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2292,10 +2295,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2312,12 +2315,15 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>0</v>
       </c>
     </row>
@@ -2329,10 +2335,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2349,10 +2355,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2369,10 +2375,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2389,10 +2395,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2518,10 +2524,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2538,10 +2544,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2558,10 +2564,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2646,10 +2652,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>10.6</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>10.6</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2666,10 +2672,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2686,10 +2692,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>11.6</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>11.6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2706,10 +2712,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>26.3</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>26.3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2743,10 +2749,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2763,10 +2769,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2800,10 +2806,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>12.9</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>12.9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2820,10 +2826,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>28.3</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>28.3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2840,10 +2846,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>13.4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>13.4</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2860,10 +2866,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>28.6</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>28.6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2880,15 +2886,12 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
         <v>0</v>
       </c>
     </row>
@@ -2900,10 +2903,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2920,10 +2923,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2940,15 +2943,12 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
         <v>0</v>
       </c>
     </row>
@@ -2960,10 +2960,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2980,10 +2980,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3020,10 +3020,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="E28">
         <v>0</v>

--- a/tests/testoutputs/test_all_criteria.xlsx
+++ b/tests/testoutputs/test_all_criteria.xlsx
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="Criteria Failing, Air Speed 0.1" sheetId="2" r:id="rId2"/>
-    <sheet name="Criterion 2, Air Speed 0.1" sheetId="3" r:id="rId3"/>
+    <sheet name="Criterion 1, Air Speed 0.1" sheetId="3" r:id="rId3"/>
     <sheet name="Criterion 3, Air Speed 0.1" sheetId="4" r:id="rId4"/>
-    <sheet name="Criterion 1, Air Speed 0.1" sheetId="5" r:id="rId5"/>
+    <sheet name="Criterion 2, Air Speed 0.1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -20,18 +20,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="58">
   <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>JobNo</t>
+  </si>
+  <si>
     <t>sheet_name</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -44,25 +44,25 @@
     <t>3</t>
   </si>
   <si>
+    <t>jovyan</t>
+  </si>
+  <si>
+    <t>/c/e</t>
+  </si>
+  <si>
     <t>Criteria Failing, Air Speed 0.1</t>
   </si>
   <si>
+    <t>Criterion 1, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 3, Air Speed 0.1</t>
+  </si>
+  <si>
     <t>Criterion 2, Air Speed 0.1</t>
   </si>
   <si>
-    <t>Criterion 3, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 1, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>20220325</t>
-  </si>
-  <si>
-    <t>/c/e</t>
-  </si>
-  <si>
-    <t>jovyan</t>
+    <t>20220422</t>
   </si>
   <si>
     <t>index</t>
@@ -176,22 +176,22 @@
     <t>1 &amp; 2</t>
   </si>
   <si>
+    <t>Criterion 1 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 1 Relative Change (%)</t>
+  </si>
+  <si>
+    <t>Criterion 3 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 3 Relative Change (%)</t>
+  </si>
+  <si>
     <t>Criterion 2 Absolute Change</t>
   </si>
   <si>
     <t>Criterion 2 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>Criterion 3 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 3 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>Criterion 1 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 1 Relative Change (%)</t>
   </si>
 </sst>
 </file>
@@ -375,10 +375,10 @@
   <autoFilter ref="A1:E5"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="sheet_name"/>
-    <tableColumn id="3" name="Date"/>
-    <tableColumn id="4" name="JobNo"/>
-    <tableColumn id="5" name="Author"/>
+    <tableColumn id="2" name="Author"/>
+    <tableColumn id="3" name="JobNo"/>
+    <tableColumn id="4" name="sheet_name"/>
+    <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -405,8 +405,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -435,8 +435,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -767,10 +767,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -798,13 +798,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -815,10 +815,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -1262,10 +1262,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1282,10 +1282,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>8.1</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>8.1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>10.6</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>10.6</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1410,10 +1410,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>11.6</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>11.6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>26.3</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>26.3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1487,10 +1487,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1544,10 +1544,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>12.9</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>12.9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1564,10 +1564,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>13.4</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>13.4</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1624,15 +1624,12 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
         <v>0</v>
       </c>
     </row>
@@ -1644,10 +1641,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1664,10 +1661,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1684,15 +1681,12 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
         <v>0</v>
       </c>
     </row>
@@ -1704,10 +1698,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>5.6</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>5.6</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1724,10 +1718,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>17.7</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>17.7</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1744,10 +1738,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>5.2</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>5.2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1764,10 +1758,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>17.7</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>17.7</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2524,10 +2518,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2544,10 +2538,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2564,10 +2558,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>8.1</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>8.1</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2652,10 +2646,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>10.6</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>10.6</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2672,10 +2666,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2692,10 +2686,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>11.6</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>11.6</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2712,10 +2706,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>26.3</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>26.3</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2749,10 +2743,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2769,10 +2763,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2806,10 +2800,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>12.9</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>12.9</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2826,10 +2820,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>28.3</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>28.3</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2846,10 +2840,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>13.4</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>13.4</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2866,10 +2860,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2886,12 +2880,15 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>0</v>
       </c>
     </row>
@@ -2903,10 +2900,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2923,10 +2920,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>0.4</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2943,12 +2940,15 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>0</v>
       </c>
     </row>
@@ -2960,10 +2960,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>5.6</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>5.6</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2980,10 +2980,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>17.7</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>17.7</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>5.2</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>5.2</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3020,10 +3020,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>17.7</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>17.7</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>

--- a/tests/testoutputs/test_all_criteria.xlsx
+++ b/tests/testoutputs/test_all_criteria.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="Criteria Failing, Air Speed 0.1" sheetId="2" r:id="rId2"/>
-    <sheet name="Criterion 1, Air Speed 0.1" sheetId="3" r:id="rId3"/>
-    <sheet name="Criterion 3, Air Speed 0.1" sheetId="4" r:id="rId4"/>
+    <sheet name="Criterion 3, Air Speed 0.1" sheetId="3" r:id="rId3"/>
+    <sheet name="Criterion 1, Air Speed 0.1" sheetId="4" r:id="rId4"/>
     <sheet name="Criterion 2, Air Speed 0.1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,18 +20,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="59">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -44,27 +44,27 @@
     <t>3</t>
   </si>
   <si>
+    <t>20220614</t>
+  </si>
+  <si>
+    <t>jovyan</t>
+  </si>
+  <si>
+    <t>Criteria Failing, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 3, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 1, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 2, Air Speed 0.1</t>
+  </si>
+  <si>
     <t>/c/e</t>
   </si>
   <si>
-    <t>20220316</t>
-  </si>
-  <si>
-    <t>Criteria Failing, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 1, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 3, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 2, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>jovyan</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -176,6 +176,12 @@
     <t>1 &amp; 2</t>
   </si>
   <si>
+    <t>Criterion 3 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 3 Relative Change (%)</t>
+  </si>
+  <si>
     <t>Criterion 1 Absolute Change</t>
   </si>
   <si>
@@ -183,12 +189,6 @@
   </si>
   <si>
     <t>inf</t>
-  </si>
-  <si>
-    <t>Criterion 3 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 3 Relative Change (%)</t>
   </si>
   <si>
     <t>Criterion 2 Absolute Change</t>
@@ -378,10 +378,10 @@
   <autoFilter ref="A1:E5"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="Date"/>
+    <tableColumn id="2" name="Date"/>
+    <tableColumn id="3" name="Author"/>
     <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Author"/>
+    <tableColumn id="5" name="JobNo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -408,8 +408,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -423,8 +423,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1265,16 +1265,16 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>-0.04999999999999982</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-1.999999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1285,16 +1285,16 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>7.79</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>-0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.1282051282051255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1305,16 +1305,16 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>8.1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>8.09</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>-0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.1234567901234542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1393,16 +1393,16 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>10.6</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>10.59</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>-0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.09433962264150743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1413,16 +1413,16 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>26.04</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1538461538461506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1433,16 +1433,16 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>11.6</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>11.57</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>-0.02999999999999936</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.2586206896551669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1453,16 +1453,16 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>26.3</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>26.34</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.1520912547528485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1490,10 +1490,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1510,16 +1510,16 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0.04000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>40.00000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1547,16 +1547,16 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>12.9</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>12.91</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.07751937984495957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1567,16 +1567,16 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>28.3</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>28.31</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>0.00999999999999801</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03533568904592936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1587,16 +1587,16 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>13.4</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>13.43</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>0.02999999999999936</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2238805970149206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1607,16 +1607,16 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>28.6</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>28.61</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>0.00999999999999801</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.03496503496502801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1627,16 +1627,16 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0.03</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1647,16 +1647,16 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>-1.250000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1667,16 +1667,16 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>-0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>-12.50000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1687,16 +1687,16 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0.03</v>
-      </c>
-      <c r="F24" t="s">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1707,16 +1707,16 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>5.58</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>-0.01999999999999957</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>-0.3571428571428495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1727,16 +1727,16 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>17.75</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>0.05000000000000071</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.2824858757062187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1747,16 +1747,16 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>5.23</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>0.03000000000000025</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.5769230769230818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1767,16 +1767,16 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>17.75</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>0.05000000000000071</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.2824858757062187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1882,10 +1882,10 @@
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1896,16 +1896,16 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-0.04999999999999982</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>-1.999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1916,16 +1916,16 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>7.79</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>-0.1282051282051255</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1936,16 +1936,16 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>8.09</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>-0.1234567901234542</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2024,16 +2024,16 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>10.6</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>10.59</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-0.09433962264150743</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2044,16 +2044,16 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>26.04</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.1538461538461506</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2064,16 +2064,16 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>11.6</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>11.57</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>-0.02999999999999936</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>-0.2586206896551669</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2084,16 +2084,16 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>26.3</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>26.34</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.1520912547528485</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2121,10 +2121,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2141,16 +2141,16 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2178,16 +2178,16 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>12.9</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>12.91</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.009999999999999787</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.07751937984495957</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2198,16 +2198,16 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>28.3</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>28.31</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.03533568904592936</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2218,16 +2218,16 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>13.4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>13.43</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.02999999999999936</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.2238805970149206</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2238,16 +2238,16 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>28.6</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>28.61</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.03496503496502801</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2258,16 +2258,16 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+        <v>0.03</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2278,16 +2278,16 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>-1.250000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2298,16 +2298,16 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>-12.50000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2318,16 +2318,16 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+        <v>0.03</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2338,16 +2338,16 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>5.58</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>-0.01999999999999957</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>-0.3571428571428495</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2358,16 +2358,16 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>17.75</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.05000000000000071</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.2824858757062187</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2378,16 +2378,16 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>5.23</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.03000000000000025</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.5769230769230818</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2398,16 +2398,16 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>17.75</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.05000000000000071</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.2824858757062187</v>
       </c>
     </row>
     <row r="29" spans="1:6">

--- a/tests/testoutputs/test_all_criteria.xlsx
+++ b/tests/testoutputs/test_all_criteria.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="Criteria Failing, Air Speed 0.1" sheetId="2" r:id="rId2"/>
-    <sheet name="Criterion 3, Air Speed 0.1" sheetId="3" r:id="rId3"/>
-    <sheet name="Criterion 1, Air Speed 0.1" sheetId="4" r:id="rId4"/>
+    <sheet name="Criterion 1, Air Speed 0.1" sheetId="3" r:id="rId3"/>
+    <sheet name="Criterion 3, Air Speed 0.1" sheetId="4" r:id="rId4"/>
     <sheet name="Criterion 2, Air Speed 0.1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26,12 +26,12 @@
     <t>Author</t>
   </si>
   <si>
+    <t>JobNo</t>
+  </si>
+  <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -50,21 +50,21 @@
     <t>jovyan</t>
   </si>
   <si>
+    <t>/c/e</t>
+  </si>
+  <si>
     <t>Criteria Failing, Air Speed 0.1</t>
   </si>
   <si>
+    <t>Criterion 1, Air Speed 0.1</t>
+  </si>
+  <si>
     <t>Criterion 3, Air Speed 0.1</t>
   </si>
   <si>
-    <t>Criterion 1, Air Speed 0.1</t>
-  </si>
-  <si>
     <t>Criterion 2, Air Speed 0.1</t>
   </si>
   <si>
-    <t>/c/e</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -176,19 +176,19 @@
     <t>1 &amp; 2</t>
   </si>
   <si>
+    <t>Criterion 1 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 1 Relative Change (%)</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
     <t>Criterion 3 Absolute Change</t>
   </si>
   <si>
     <t>Criterion 3 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>Criterion 1 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 1 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
   <si>
     <t>Criterion 2 Absolute Change</t>
@@ -380,8 +380,8 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Date"/>
     <tableColumn id="3" name="Author"/>
-    <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="JobNo"/>
+    <tableColumn id="4" name="JobNo"/>
+    <tableColumn id="5" name="sheet_name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -408,8 +408,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -423,8 +423,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -776,7 +776,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -790,10 +790,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -807,10 +807,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -824,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -1265,16 +1265,16 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-0.04999999999999982</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>-1.999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1285,16 +1285,16 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>7.79</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>-0.1282051282051255</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1305,16 +1305,16 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>8.09</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>-0.1234567901234542</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1393,16 +1393,16 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>10.6</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>10.59</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-0.09433962264150743</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1413,16 +1413,16 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>26.04</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.1538461538461506</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1433,16 +1433,16 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>11.6</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>11.57</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>-0.02999999999999936</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>-0.2586206896551669</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1453,16 +1453,16 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>26.3</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>26.34</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.1520912547528485</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1490,10 +1490,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1510,16 +1510,16 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1547,16 +1547,16 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>12.9</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>12.91</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.009999999999999787</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.07751937984495957</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1567,16 +1567,16 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>28.3</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>28.31</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.03533568904592936</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1587,16 +1587,16 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>13.4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>13.43</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.02999999999999936</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.2238805970149206</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1607,16 +1607,16 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>28.6</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>28.61</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.03496503496502801</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1627,16 +1627,16 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+        <v>0.03</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1647,16 +1647,16 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>-1.250000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1667,16 +1667,16 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>-12.50000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1687,16 +1687,16 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+        <v>0.03</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1707,16 +1707,16 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>5.58</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>-0.01999999999999957</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>-0.3571428571428495</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1727,16 +1727,16 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>17.75</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.05000000000000071</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.2824858757062187</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1747,16 +1747,16 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>5.23</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.03000000000000025</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.5769230769230818</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1767,16 +1767,16 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>17.75</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.05000000000000071</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.2824858757062187</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1882,10 +1882,10 @@
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1896,16 +1896,16 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>-0.04999999999999982</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-1.999999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1916,16 +1916,16 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>7.79</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>-0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.1282051282051255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1936,16 +1936,16 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>8.1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>8.09</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>-0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.1234567901234542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2024,16 +2024,16 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>10.6</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>10.59</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>-0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.09433962264150743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2044,16 +2044,16 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>26.04</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1538461538461506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2064,16 +2064,16 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>11.6</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>11.57</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>-0.02999999999999936</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.2586206896551669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2084,16 +2084,16 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>26.3</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>26.34</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.1520912547528485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2121,10 +2121,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2141,16 +2141,16 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0.04000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>40.00000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2178,16 +2178,16 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>12.9</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>12.91</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.07751937984495957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2198,16 +2198,16 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>28.3</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>28.31</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>0.00999999999999801</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03533568904592936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2218,16 +2218,16 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>13.4</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>13.43</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>0.02999999999999936</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2238805970149206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2238,16 +2238,16 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>28.6</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>28.61</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>0.00999999999999801</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.03496503496502801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2258,16 +2258,16 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0.03</v>
-      </c>
-      <c r="F21" t="s">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2278,16 +2278,16 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>-1.250000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2298,16 +2298,16 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>-0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>-12.50000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2318,16 +2318,16 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0.03</v>
-      </c>
-      <c r="F24" t="s">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2338,16 +2338,16 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>5.58</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>-0.01999999999999957</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>-0.3571428571428495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2358,16 +2358,16 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>17.75</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>0.05000000000000071</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.2824858757062187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2378,16 +2378,16 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>5.23</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>0.03000000000000025</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.5769230769230818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2398,16 +2398,16 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>17.75</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>0.05000000000000071</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.2824858757062187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">

--- a/tests/testoutputs/test_all_criteria.xlsx
+++ b/tests/testoutputs/test_all_criteria.xlsx
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="Criteria Failing, Air Speed 0.1" sheetId="2" r:id="rId2"/>
-    <sheet name="Criterion 1, Air Speed 0.1" sheetId="3" r:id="rId3"/>
-    <sheet name="Criterion 3, Air Speed 0.1" sheetId="4" r:id="rId4"/>
-    <sheet name="Criterion 2, Air Speed 0.1" sheetId="5" r:id="rId5"/>
+    <sheet name="Criterion 2, Air Speed 0.1" sheetId="3" r:id="rId3"/>
+    <sheet name="Criterion 1, Air Speed 0.1" sheetId="4" r:id="rId4"/>
+    <sheet name="Criterion 3, Air Speed 0.1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -20,18 +20,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="58">
   <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -44,27 +44,27 @@
     <t>3</t>
   </si>
   <si>
+    <t>/c/e</t>
+  </si>
+  <si>
+    <t>Criteria Failing, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 2, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 1, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 3, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>20220614</t>
+  </si>
+  <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>/c/e</t>
-  </si>
-  <si>
-    <t>Criteria Failing, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 1, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 3, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 2, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>20220422</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -176,6 +176,12 @@
     <t>1 &amp; 2</t>
   </si>
   <si>
+    <t>Criterion 2 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 2 Relative Change (%)</t>
+  </si>
+  <si>
     <t>Criterion 1 Absolute Change</t>
   </si>
   <si>
@@ -186,12 +192,6 @@
   </si>
   <si>
     <t>Criterion 3 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>Criterion 2 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 2 Relative Change (%)</t>
   </si>
 </sst>
 </file>
@@ -375,10 +375,10 @@
   <autoFilter ref="A1:E5"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Author"/>
-    <tableColumn id="3" name="JobNo"/>
-    <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Date"/>
+    <tableColumn id="2" name="JobNo"/>
+    <tableColumn id="3" name="sheet_name"/>
+    <tableColumn id="4" name="Date"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -405,8 +405,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -420,8 +420,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -435,8 +435,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -770,7 +770,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -784,10 +784,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -801,10 +801,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -818,7 +818,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -1262,10 +1262,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1282,10 +1282,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>8.1</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>8.1</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>10.6</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>10.6</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1410,10 +1410,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>11.6</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>11.6</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>26.3</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>26.3</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1487,10 +1487,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1544,10 +1544,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>12.9</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>12.9</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1564,10 +1564,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>28.3</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>28.3</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>13.4</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>13.4</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1624,12 +1624,15 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>0</v>
       </c>
     </row>
@@ -1641,10 +1644,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1661,10 +1664,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>0.4</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1681,12 +1684,15 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>0</v>
       </c>
     </row>
@@ -1698,10 +1704,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>5.6</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>5.6</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1718,10 +1724,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>17.7</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>17.7</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1738,10 +1744,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>5.2</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>5.2</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1758,10 +1764,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>17.7</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>17.7</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1887,10 +1893,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1907,10 +1913,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1927,10 +1933,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2015,10 +2021,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>10.6</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>10.6</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2035,10 +2041,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2055,10 +2061,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>11.6</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>11.6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2075,10 +2081,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>26.3</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>26.3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2112,10 +2118,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2132,10 +2138,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2169,10 +2175,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>12.9</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>12.9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2189,10 +2195,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>28.3</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>28.3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2209,10 +2215,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>13.4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>13.4</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2229,10 +2235,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>28.6</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>28.6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2249,15 +2255,12 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
         <v>0</v>
       </c>
     </row>
@@ -2269,10 +2272,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2289,10 +2292,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2309,15 +2312,12 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
         <v>0</v>
       </c>
     </row>
@@ -2329,10 +2329,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2349,10 +2349,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2389,10 +2389,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2518,10 +2518,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2558,10 +2558,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2666,10 +2666,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2686,10 +2686,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2706,10 +2706,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2743,10 +2743,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2820,10 +2820,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2900,10 +2900,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2920,10 +2920,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2960,10 +2960,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2980,10 +2980,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3020,10 +3020,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>

--- a/tests/testoutputs/test_all_criteria.xlsx
+++ b/tests/testoutputs/test_all_criteria.xlsx
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="Criteria Failing, Air Speed 0.1" sheetId="2" r:id="rId2"/>
-    <sheet name="Criterion 2, Air Speed 0.1" sheetId="3" r:id="rId3"/>
-    <sheet name="Criterion 1, Air Speed 0.1" sheetId="4" r:id="rId4"/>
-    <sheet name="Criterion 3, Air Speed 0.1" sheetId="5" r:id="rId5"/>
+    <sheet name="Criterion 1, Air Speed 0.1" sheetId="3" r:id="rId3"/>
+    <sheet name="Criterion 3, Air Speed 0.1" sheetId="4" r:id="rId4"/>
+    <sheet name="Criterion 2, Air Speed 0.1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -20,18 +20,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="58">
   <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -44,27 +44,27 @@
     <t>3</t>
   </si>
   <si>
+    <t>jovyan</t>
+  </si>
+  <si>
+    <t>Criteria Failing, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 1, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 3, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 2, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>20220615</t>
+  </si>
+  <si>
     <t>/c/e</t>
   </si>
   <si>
-    <t>Criteria Failing, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 2, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 1, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 3, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>20220614</t>
-  </si>
-  <si>
-    <t>jovyan</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -176,22 +176,22 @@
     <t>1 &amp; 2</t>
   </si>
   <si>
+    <t>Criterion 1 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 1 Relative Change (%)</t>
+  </si>
+  <si>
+    <t>Criterion 3 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 3 Relative Change (%)</t>
+  </si>
+  <si>
     <t>Criterion 2 Absolute Change</t>
   </si>
   <si>
     <t>Criterion 2 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>Criterion 1 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 1 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>Criterion 3 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 3 Relative Change (%)</t>
   </si>
 </sst>
 </file>
@@ -375,10 +375,10 @@
   <autoFilter ref="A1:E5"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="JobNo"/>
+    <tableColumn id="2" name="Author"/>
     <tableColumn id="3" name="sheet_name"/>
     <tableColumn id="4" name="Date"/>
-    <tableColumn id="5" name="Author"/>
+    <tableColumn id="5" name="JobNo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -405,8 +405,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -420,8 +420,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -435,8 +435,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1262,10 +1262,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1282,10 +1282,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>8.1</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>8.1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>10.6</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>10.6</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1410,10 +1410,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>11.6</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>11.6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>26.3</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>26.3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1487,10 +1487,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1544,10 +1544,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>12.9</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>12.9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1564,10 +1564,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>13.4</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>13.4</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1624,15 +1624,12 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
         <v>0</v>
       </c>
     </row>
@@ -1644,10 +1641,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1664,10 +1661,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1684,15 +1681,12 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
         <v>0</v>
       </c>
     </row>
@@ -1704,10 +1698,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>5.6</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>5.6</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1724,10 +1718,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>17.7</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>17.7</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1744,10 +1738,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>5.2</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>5.2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1764,10 +1758,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>17.7</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>17.7</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1893,10 +1887,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1913,10 +1907,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1933,10 +1927,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>8.1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>8.1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2021,10 +2015,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>10.6</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>10.6</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2041,10 +2035,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2061,10 +2055,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>11.6</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>11.6</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2081,10 +2075,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>26.3</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>26.3</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2118,10 +2112,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2138,10 +2132,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2175,10 +2169,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>12.9</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>12.9</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2195,10 +2189,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>28.3</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>28.3</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2215,10 +2209,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>13.4</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>13.4</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2235,10 +2229,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>28.6</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>28.6</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2255,12 +2249,15 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>0</v>
       </c>
     </row>
@@ -2272,10 +2269,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2292,10 +2289,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2312,12 +2309,15 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>0</v>
       </c>
     </row>
@@ -2329,10 +2329,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2349,10 +2349,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2389,10 +2389,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2518,10 +2518,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2558,10 +2558,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2666,10 +2666,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2686,10 +2686,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2706,10 +2706,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2743,10 +2743,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2820,10 +2820,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2900,10 +2900,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2920,10 +2920,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2960,10 +2960,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2980,10 +2980,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3020,10 +3020,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>

--- a/tests/testoutputs/test_all_criteria.xlsx
+++ b/tests/testoutputs/test_all_criteria.xlsx
@@ -20,18 +20,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="58">
   <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -44,25 +44,25 @@
     <t>3</t>
   </si>
   <si>
+    <t>/c/e</t>
+  </si>
+  <si>
+    <t>Criteria Failing, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 1, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 3, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 2, Air Speed 0.1</t>
+  </si>
+  <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>Criteria Failing, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 1, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 3, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 2, Air Speed 0.1</t>
-  </si>
-  <si>
     <t>20220615</t>
-  </si>
-  <si>
-    <t>/c/e</t>
   </si>
   <si>
     <t>index</t>
@@ -375,10 +375,10 @@
   <autoFilter ref="A1:E5"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Author"/>
+    <tableColumn id="2" name="JobNo"/>
     <tableColumn id="3" name="sheet_name"/>
-    <tableColumn id="4" name="Date"/>
-    <tableColumn id="5" name="JobNo"/>
+    <tableColumn id="4" name="Author"/>
+    <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/tests/testoutputs/test_all_criteria.xlsx
+++ b/tests/testoutputs/test_all_criteria.xlsx
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="Criteria Failing, Air Speed 0.1" sheetId="2" r:id="rId2"/>
-    <sheet name="Criterion 1, Air Speed 0.1" sheetId="3" r:id="rId3"/>
-    <sheet name="Criterion 3, Air Speed 0.1" sheetId="4" r:id="rId4"/>
-    <sheet name="Criterion 2, Air Speed 0.1" sheetId="5" r:id="rId5"/>
+    <sheet name="Criterion 2, Air Speed 0.1" sheetId="3" r:id="rId3"/>
+    <sheet name="Criterion 1, Air Speed 0.1" sheetId="4" r:id="rId4"/>
+    <sheet name="Criterion 3, Air Speed 0.1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -20,15 +20,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="58">
   <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -44,24 +44,24 @@
     <t>3</t>
   </si>
   <si>
+    <t>jovyan</t>
+  </si>
+  <si>
     <t>/c/e</t>
   </si>
   <si>
     <t>Criteria Failing, Air Speed 0.1</t>
   </si>
   <si>
+    <t>Criterion 2, Air Speed 0.1</t>
+  </si>
+  <si>
     <t>Criterion 1, Air Speed 0.1</t>
   </si>
   <si>
     <t>Criterion 3, Air Speed 0.1</t>
   </si>
   <si>
-    <t>Criterion 2, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>jovyan</t>
-  </si>
-  <si>
     <t>20220615</t>
   </si>
   <si>
@@ -176,6 +176,12 @@
     <t>1 &amp; 2</t>
   </si>
   <si>
+    <t>Criterion 2 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 2 Relative Change (%)</t>
+  </si>
+  <si>
     <t>Criterion 1 Absolute Change</t>
   </si>
   <si>
@@ -186,12 +192,6 @@
   </si>
   <si>
     <t>Criterion 3 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>Criterion 2 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 2 Relative Change (%)</t>
   </si>
 </sst>
 </file>
@@ -375,9 +375,9 @@
   <autoFilter ref="A1:E5"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="sheet_name"/>
-    <tableColumn id="4" name="Author"/>
+    <tableColumn id="2" name="Author"/>
+    <tableColumn id="3" name="JobNo"/>
+    <tableColumn id="4" name="sheet_name"/>
     <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -405,8 +405,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -420,8 +420,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -435,8 +435,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -770,7 +770,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -784,10 +784,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -801,10 +801,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -818,7 +818,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -1262,10 +1262,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1282,10 +1282,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>8.1</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>8.1</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>10.6</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>10.6</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1410,10 +1410,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>11.6</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>11.6</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>26.3</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>26.3</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1487,10 +1487,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1544,10 +1544,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>12.9</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>12.9</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1564,10 +1564,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>28.3</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>28.3</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>13.4</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>13.4</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1624,12 +1624,15 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>0</v>
       </c>
     </row>
@@ -1641,10 +1644,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1661,10 +1664,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>0.4</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1681,12 +1684,15 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>0</v>
       </c>
     </row>
@@ -1698,10 +1704,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>5.6</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>5.6</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1718,10 +1724,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>17.7</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>17.7</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1738,10 +1744,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>5.2</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>5.2</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1758,10 +1764,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>17.7</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>17.7</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1887,10 +1893,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1907,10 +1913,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1927,10 +1933,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2015,10 +2021,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>10.6</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>10.6</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2035,10 +2041,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2055,10 +2061,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>11.6</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>11.6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2075,10 +2081,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>26.3</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>26.3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2112,10 +2118,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2132,10 +2138,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2169,10 +2175,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>12.9</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>12.9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2189,10 +2195,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>28.3</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>28.3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2209,10 +2215,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>13.4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>13.4</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2229,10 +2235,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>28.6</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>28.6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2249,15 +2255,12 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
         <v>0</v>
       </c>
     </row>
@@ -2269,10 +2272,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2289,10 +2292,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2309,15 +2312,12 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
         <v>0</v>
       </c>
     </row>
@@ -2329,10 +2329,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2349,10 +2349,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2389,10 +2389,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>17.7</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2518,10 +2518,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2558,10 +2558,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2666,10 +2666,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2686,10 +2686,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2706,10 +2706,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2743,10 +2743,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2820,10 +2820,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2900,10 +2900,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2920,10 +2920,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2960,10 +2960,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2980,10 +2980,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3020,10 +3020,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>

--- a/tests/testoutputs/test_all_criteria.xlsx
+++ b/tests/testoutputs/test_all_criteria.xlsx
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="Criteria Failing, Air Speed 0.1" sheetId="2" r:id="rId2"/>
-    <sheet name="Criterion 2, Air Speed 0.1" sheetId="3" r:id="rId3"/>
-    <sheet name="Criterion 1, Air Speed 0.1" sheetId="4" r:id="rId4"/>
-    <sheet name="Criterion 3, Air Speed 0.1" sheetId="5" r:id="rId5"/>
+    <sheet name="Criterion 1, Air Speed 0.1" sheetId="3" r:id="rId3"/>
+    <sheet name="Criterion 3, Air Speed 0.1" sheetId="4" r:id="rId4"/>
+    <sheet name="Criterion 2, Air Speed 0.1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -20,18 +20,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="58">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -44,27 +44,27 @@
     <t>3</t>
   </si>
   <si>
+    <t>20220615</t>
+  </si>
+  <si>
+    <t>/c/e</t>
+  </si>
+  <si>
+    <t>Criteria Failing, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 1, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 3, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 2, Air Speed 0.1</t>
+  </si>
+  <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>/c/e</t>
-  </si>
-  <si>
-    <t>Criteria Failing, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 2, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 1, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 3, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>20220615</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -176,22 +176,22 @@
     <t>1 &amp; 2</t>
   </si>
   <si>
+    <t>Criterion 1 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 1 Relative Change (%)</t>
+  </si>
+  <si>
+    <t>Criterion 3 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 3 Relative Change (%)</t>
+  </si>
+  <si>
     <t>Criterion 2 Absolute Change</t>
   </si>
   <si>
     <t>Criterion 2 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>Criterion 1 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 1 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>Criterion 3 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 3 Relative Change (%)</t>
   </si>
 </sst>
 </file>
@@ -375,10 +375,10 @@
   <autoFilter ref="A1:E5"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Author"/>
+    <tableColumn id="2" name="Date"/>
     <tableColumn id="3" name="JobNo"/>
     <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Date"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -405,8 +405,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -420,8 +420,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -435,8 +435,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1262,10 +1262,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1282,10 +1282,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>8.1</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>8.1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>10.6</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>10.6</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1410,10 +1410,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>11.6</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>11.6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>26.3</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>26.3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1487,10 +1487,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1544,10 +1544,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>12.9</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>12.9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1564,10 +1564,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>13.4</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>13.4</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1624,15 +1624,12 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
         <v>0</v>
       </c>
     </row>
@@ -1644,10 +1641,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1664,10 +1661,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1684,15 +1681,12 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
         <v>0</v>
       </c>
     </row>
@@ -1704,10 +1698,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>5.6</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>5.6</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1724,10 +1718,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>17.7</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>17.7</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1744,10 +1738,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>5.2</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>5.2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1764,10 +1758,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>17.7</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>17.7</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1893,10 +1887,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1913,10 +1907,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1933,10 +1927,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>8.1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>8.1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2021,10 +2015,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>10.6</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>10.6</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2041,10 +2035,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2061,10 +2055,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>11.6</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>11.6</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2081,10 +2075,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>26.3</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>26.3</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2118,10 +2112,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2138,10 +2132,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2175,10 +2169,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>12.9</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>12.9</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2195,10 +2189,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>28.3</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>28.3</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2215,10 +2209,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>13.4</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>13.4</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2235,10 +2229,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>28.6</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>28.6</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2255,12 +2249,15 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>0</v>
       </c>
     </row>
@@ -2272,10 +2269,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2292,10 +2289,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2312,12 +2309,15 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>0</v>
       </c>
     </row>
@@ -2329,10 +2329,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2349,10 +2349,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2389,10 +2389,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2518,10 +2518,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2558,10 +2558,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2666,10 +2666,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2686,10 +2686,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2706,10 +2706,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2743,10 +2743,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2820,10 +2820,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2900,10 +2900,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2920,10 +2920,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2960,10 +2960,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2980,10 +2980,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3020,10 +3020,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>

--- a/tests/testoutputs/test_all_criteria.xlsx
+++ b/tests/testoutputs/test_all_criteria.xlsx
@@ -10,8 +10,8 @@
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="Criteria Failing, Air Speed 0.1" sheetId="2" r:id="rId2"/>
     <sheet name="Criterion 1, Air Speed 0.1" sheetId="3" r:id="rId3"/>
-    <sheet name="Criterion 3, Air Speed 0.1" sheetId="4" r:id="rId4"/>
-    <sheet name="Criterion 2, Air Speed 0.1" sheetId="5" r:id="rId5"/>
+    <sheet name="Criterion 2, Air Speed 0.1" sheetId="4" r:id="rId4"/>
+    <sheet name="Criterion 3, Air Speed 0.1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -20,15 +20,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="58">
   <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>JobNo</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
@@ -44,22 +44,22 @@
     <t>3</t>
   </si>
   <si>
-    <t>20220615</t>
+    <t>Criteria Failing, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 1, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 2, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 3, Air Speed 0.1</t>
   </si>
   <si>
     <t>/c/e</t>
   </si>
   <si>
-    <t>Criteria Failing, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 1, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 3, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 2, Air Speed 0.1</t>
+    <t>20220711</t>
   </si>
   <si>
     <t>jovyan</t>
@@ -182,16 +182,16 @@
     <t>Criterion 1 Relative Change (%)</t>
   </si>
   <si>
+    <t>Criterion 2 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 2 Relative Change (%)</t>
+  </si>
+  <si>
     <t>Criterion 3 Absolute Change</t>
   </si>
   <si>
     <t>Criterion 3 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>Criterion 2 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 2 Relative Change (%)</t>
   </si>
 </sst>
 </file>
@@ -375,9 +375,9 @@
   <autoFilter ref="A1:E5"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Date"/>
+    <tableColumn id="2" name="sheet_name"/>
     <tableColumn id="3" name="JobNo"/>
-    <tableColumn id="4" name="sheet_name"/>
+    <tableColumn id="4" name="Date"/>
     <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -420,8 +420,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -435,8 +435,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -767,10 +767,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -798,13 +798,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -815,10 +815,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -1887,10 +1887,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1927,10 +1927,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2015,10 +2015,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2035,10 +2035,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2075,10 +2075,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2112,10 +2112,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2189,10 +2189,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2209,10 +2209,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2229,10 +2229,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2269,10 +2269,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2349,10 +2349,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2389,10 +2389,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2518,10 +2518,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2558,10 +2558,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2666,10 +2666,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2686,10 +2686,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2706,10 +2706,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2743,10 +2743,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2820,10 +2820,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2900,10 +2900,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2920,10 +2920,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2960,10 +2960,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2980,10 +2980,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3020,10 +3020,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>
